--- a/data.xlsx
+++ b/data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,28 +474,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.4309451692604</v>
+        <v>87.33386952456189</v>
       </c>
       <c r="C2" t="n">
-        <v>6.094709837227692</v>
+        <v>6.121777519642477</v>
       </c>
       <c r="D2" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E2" t="n">
-        <v>19.36157970717131</v>
+        <v>19.54324352997189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6038102625117219</v>
+        <v>1.369908256143771</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[660, 627, 22, 32]</t>
+          <t>[224, 572, 16, 16]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(668, 622, 22, 33)</t>
+          <t>(233, 570, 16, 16)</t>
         </is>
       </c>
     </row>
@@ -506,28 +506,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.8699589103635</v>
+        <v>143.8958902707869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9390378054157352</v>
+        <v>12.63346160005246</v>
       </c>
       <c r="D3" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E3" t="n">
-        <v>19.50414453601125</v>
+        <v>32.20047894171455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09303160920527408</v>
+        <v>2.827068330081668</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[766, 496, 16, 11]</t>
+          <t>[408, 528, 15, 15]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(767, 495, 16, 11)</t>
+          <t>(427, 529, 15, 15)</t>
         </is>
       </c>
     </row>
@@ -538,28 +538,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.7113817411916</v>
+        <v>78.33245366498882</v>
       </c>
       <c r="C4" t="n">
-        <v>6.932363521916606</v>
+        <v>11.97043023454044</v>
       </c>
       <c r="D4" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E4" t="n">
-        <v>25.13549292791991</v>
+        <v>17.52894068027722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6867976244623263</v>
+        <v>2.678697674862197</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[510, 491, 14, 13]</t>
+          <t>[577, 469, 16, 14]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(513, 481, 14, 13)</t>
+          <t>(594, 463, 16, 14)</t>
         </is>
       </c>
     </row>
@@ -570,28 +570,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>264.5436841845175</v>
+        <v>121.7951341624721</v>
       </c>
       <c r="C5" t="n">
-        <v>7.743504116354559</v>
+        <v>10.32941585957309</v>
       </c>
       <c r="D5" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E5" t="n">
-        <v>26.20866221023084</v>
+        <v>27.25485519719656</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7671583025490585</v>
+        <v>2.311477674869502</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[823, 487, 15, 14]</t>
+          <t>[362, 430, 17, 16]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(829, 477, 15, 14)</t>
+          <t>(374, 420, 15, 14)</t>
         </is>
       </c>
     </row>
@@ -602,28 +602,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317.1965366498889</v>
+        <v>125.3662613536893</v>
       </c>
       <c r="C6" t="n">
-        <v>3.385748957025609</v>
+        <v>27.54599818485437</v>
       </c>
       <c r="D6" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E6" t="n">
-        <v>31.42504387862676</v>
+        <v>28.05398855467174</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3354302372285433</v>
+        <v>6.164139453953426</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[580, 473, 9, 11]</t>
+          <t>[516, 387, 16, 21]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(585, 474, 9, 11)</t>
+          <t>(556, 376, 16, 21)</t>
         </is>
       </c>
     </row>
@@ -634,28 +634,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>273.8326943547368</v>
+        <v>92.04860488665176</v>
       </c>
       <c r="C7" t="n">
-        <v>44.84827256428056</v>
+        <v>26.56</v>
       </c>
       <c r="D7" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E7" t="n">
-        <v>27.12893566362718</v>
+        <v>20.59828920540459</v>
       </c>
       <c r="F7" t="n">
-        <v>4.443172514108291</v>
+        <v>5.943496503496504</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[345, 471, 16, 19]</t>
+          <t>[744, 352, 16, 18]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(374, 410, 16, 19)</t>
+          <t>(784, 352, 16, 18)</t>
         </is>
       </c>
     </row>
@@ -666,28 +666,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300.8265573255168</v>
+        <v>92.92090732997764</v>
       </c>
       <c r="C8" t="n">
-        <v>40.43863578312206</v>
+        <v>7.151498863874622</v>
       </c>
       <c r="D8" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E8" t="n">
-        <v>29.80325026135151</v>
+        <v>20.79348975216283</v>
       </c>
       <c r="F8" t="n">
-        <v>4.006304473869678</v>
+        <v>1.600335410097818</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[480, 446, 14, 11]</t>
+          <t>[616, 330, 18, 16]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(510, 393, 14, 11)</t>
+          <t>(626, 334, 18, 16)</t>
         </is>
       </c>
     </row>
@@ -698,28 +698,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>208.8735122166295</v>
+        <v>107.3482475787193</v>
       </c>
       <c r="C9" t="n">
-        <v>19.014066372031</v>
+        <v>13.23010627319373</v>
       </c>
       <c r="D9" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>20.69335105551748</v>
+        <v>24.02198547216096</v>
       </c>
       <c r="F9" t="n">
-        <v>1.883746513637746</v>
+        <v>2.960583221973422</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[571, 442, 14, 14]</t>
+          <t>[732, 302, 14, 17]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(597, 430, 14, 14)</t>
+          <t>(751, 308, 14, 17)</t>
         </is>
       </c>
     </row>
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>300.894191657884</v>
+        <v>116.1672783854158</v>
       </c>
       <c r="C10" t="n">
-        <v>49.94145244183433</v>
+        <v>15.32963039345698</v>
       </c>
       <c r="D10" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E10" t="n">
-        <v>29.80995087632287</v>
+        <v>25.99547488344968</v>
       </c>
       <c r="F10" t="n">
-        <v>4.947759994237456</v>
+        <v>3.430406801333031</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[534, 424, 9, 12]</t>
+          <t>[610, 259, 15, 16]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(578, 363, 9, 12)</t>
+          <t>(633, 257, 15, 16)</t>
         </is>
       </c>
     </row>
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267.3607976007648</v>
+        <v>155.7485157361238</v>
       </c>
       <c r="C11" t="n">
-        <v>16.39959023878341</v>
+        <v>34.55352902382042</v>
       </c>
       <c r="D11" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E11" t="n">
-        <v>26.48775703784667</v>
+        <v>34.85281471018155</v>
       </c>
       <c r="F11" t="n">
-        <v>1.624727206319099</v>
+        <v>7.732258243092683</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[573, 417, 16, 17]</t>
+          <t>[406, 259, 15, 21]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(586, 396, 16, 17)</t>
+          <t>(458, 257, 15, 21)</t>
         </is>
       </c>
     </row>
@@ -794,28 +794,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>266.3273817411916</v>
+        <v>68.04772859224154</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0371146389551</v>
+        <v>7.570764822658276</v>
       </c>
       <c r="D12" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E12" t="n">
-        <v>26.38537528086109</v>
+        <v>15.22746374092118</v>
       </c>
       <c r="F12" t="n">
-        <v>2.678599592713818</v>
+        <v>1.694157163112342</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[143, 407, 11, 14]</t>
+          <t>[433, 230, 26, 20]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(180, 390, 11, 14)</t>
+          <t>(444, 227, 26, 20)</t>
         </is>
       </c>
     </row>
@@ -826,380 +826,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>201.9011961159704</v>
+        <v>106.3148317191462</v>
       </c>
       <c r="C13" t="n">
-        <v>24.23827386593361</v>
+        <v>7.423745685299303</v>
       </c>
       <c r="D13" t="n">
-        <v>646</v>
+        <v>286</v>
       </c>
       <c r="E13" t="n">
-        <v>20.00259528083917</v>
+        <v>23.79073157351523</v>
       </c>
       <c r="F13" t="n">
-        <v>2.401315057925311</v>
+        <v>1.661257775731313</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[231, 373, 17, 15]</t>
+          <t>[381, 202, 15, 17]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(253, 344, 16, 14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Blob 12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>348.925952233988</v>
-      </c>
-      <c r="C14" t="n">
-        <v>68.03327280088766</v>
-      </c>
-      <c r="D14" t="n">
-        <v>646</v>
-      </c>
-      <c r="E14" t="n">
-        <v>34.56851539160253</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.740138481821687</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[418, 362, 13, 13]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(375, 269, 13, 13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Blob 13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>278.8294573520232</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.667985932964529</v>
-      </c>
-      <c r="D15" t="n">
-        <v>646</v>
-      </c>
-      <c r="E15" t="n">
-        <v>27.62397100701158</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9578190397983434</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[520, 340, 17, 18]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>(524, 326, 17, 18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Blob 14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>370.4658699777758</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10.04814331107991</v>
-      </c>
-      <c r="D16" t="n">
-        <v>646</v>
-      </c>
-      <c r="E16" t="n">
-        <v>36.7025010504298</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9954816902617871</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>[225, 304, 15, 13]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(240, 306, 15, 13)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Blob 15</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>342.5595674291209</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.75043466232342</v>
-      </c>
-      <c r="D17" t="n">
-        <v>646</v>
-      </c>
-      <c r="E17" t="n">
-        <v>33.93778996201817</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.154841824131112</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[53, 265, 21, 17]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(60, 233, 21, 17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Blob 16</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>228.8357202705836</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.648294818974262</v>
-      </c>
-      <c r="D18" t="n">
-        <v>646</v>
-      </c>
-      <c r="E18" t="n">
-        <v>22.67103111039838</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.6586545950686575</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>[197, 263, 34, 23]</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>(198, 253, 33, 23)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Blob 17</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>276.650625577948</v>
-      </c>
-      <c r="C19" t="n">
-        <v>28.5210995580465</v>
-      </c>
-      <c r="D19" t="n">
-        <v>646</v>
-      </c>
-      <c r="E19" t="n">
-        <v>27.40811151236636</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.825619770456619</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>[357, 239, 19, 16]</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(339, 200, 19, 16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Blob 18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>454.2259970540084</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.5622582474488</v>
-      </c>
-      <c r="D20" t="n">
-        <v>622</v>
-      </c>
-      <c r="E20" t="n">
-        <v>46.73708008272755</v>
-      </c>
-      <c r="F20" t="n">
-        <v>27.01605229555744</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[336, 198, 16, 16]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(-8, 3, 16, 16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Blob 19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>341.1134024678521</v>
-      </c>
-      <c r="C21" t="n">
-        <v>192.2540880397606</v>
-      </c>
-      <c r="D21" t="n">
-        <v>360</v>
-      </c>
-      <c r="E21" t="n">
-        <v>60.64238266095148</v>
-      </c>
-      <c r="F21" t="n">
-        <v>34.17850454040188</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[259, 105, 17, 14]</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(-8, -7, 17, 14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Blob 20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>285.9434368410718</v>
-      </c>
-      <c r="C22" t="n">
-        <v>29.61320894465846</v>
-      </c>
-      <c r="D22" t="n">
-        <v>613</v>
-      </c>
-      <c r="E22" t="n">
-        <v>29.85380090999771</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.091754278072009</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>[291, 91, 15, 20]</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>(276, 49, 15, 20)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Blob 21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>142.587436605798</v>
-      </c>
-      <c r="C23" t="n">
-        <v>17.01965546067252</v>
-      </c>
-      <c r="D23" t="n">
-        <v>321</v>
-      </c>
-      <c r="E23" t="n">
-        <v>28.42864779679461</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.393326945430036</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>[584, 58, 12, 19]</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>(560, 49, 12, 19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Blob 22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>283.2168869591018</v>
-      </c>
-      <c r="C24" t="n">
-        <v>34.45129942396948</v>
-      </c>
-      <c r="D24" t="n">
-        <v>646</v>
-      </c>
-      <c r="E24" t="n">
-        <v>28.05863895570049</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.413131831476853</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>[496, 196, 17, 17]</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>(449, 171, 19, 19)</t>
+          <t>(393, 201, 13, 15)</t>
         </is>
       </c>
     </row>
